--- a/resources/rawDataCsv/viewers.xlsx
+++ b/resources/rawDataCsv/viewers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aungg\Desktop\NM2207\final project\resources\rawDataCsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47D8EC0-C825-412C-B386-D43789B0E8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2A9D8-A275-44DB-8457-6D8814819815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="viewers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3008,7 +3008,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3016,7 +3016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -12207,7 +12206,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B91051C-7472-451F-9C15-3A4EE5B5714E}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B91051C-7472-451F-9C15-3A4EE5B5714E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -53186,13 +53185,12 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>7.5285714285714302</v>
       </c>
     </row>
@@ -53200,13 +53198,12 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>7.4562500000000007</v>
       </c>
     </row>
@@ -53214,13 +53211,12 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>7.333333333333333</v>
       </c>
     </row>
@@ -53228,13 +53224,12 @@
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>7.58</v>
       </c>
     </row>
@@ -53242,13 +53237,12 @@
       <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>7.4466666666666681</v>
       </c>
     </row>
@@ -53256,13 +53250,12 @@
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>7.7733333333333343</v>
       </c>
     </row>
@@ -53270,13 +53263,12 @@
       <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>8.26</v>
       </c>
     </row>
@@ -53284,13 +53276,12 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>7.7411764705882353</v>
       </c>
     </row>
@@ -53298,13 +53289,12 @@
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>7.5933333333333337</v>
       </c>
     </row>
@@ -53312,13 +53302,12 @@
       <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>7.9733333333333336</v>
       </c>
     </row>
@@ -53326,13 +53315,12 @@
       <c r="A24" s="4">
         <v>11</v>
       </c>
-      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>7.7133333333333329</v>
       </c>
     </row>
@@ -53340,13 +53328,12 @@
       <c r="A26" s="4">
         <v>12</v>
       </c>
-      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>7.4687500000000018</v>
       </c>
     </row>
@@ -53354,13 +53341,12 @@
       <c r="A28" s="4">
         <v>13</v>
       </c>
-      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>7.6937499999999996</v>
       </c>
     </row>
@@ -53368,13 +53354,12 @@
       <c r="A30" s="4">
         <v>14</v>
       </c>
-      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>7.1466666666666674</v>
       </c>
     </row>
@@ -53382,13 +53367,12 @@
       <c r="A32" s="4">
         <v>15</v>
       </c>
-      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>7.5866666666666651</v>
       </c>
     </row>
@@ -53396,13 +53380,12 @@
       <c r="A34" s="4">
         <v>16</v>
       </c>
-      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>7.7133333333333347</v>
       </c>
     </row>
@@ -53410,13 +53393,12 @@
       <c r="A36" s="4">
         <v>17</v>
       </c>
-      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>7.4428571428571431</v>
       </c>
     </row>
@@ -53424,13 +53406,12 @@
       <c r="A38" s="4">
         <v>18</v>
       </c>
-      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>7.6</v>
       </c>
     </row>
@@ -53438,13 +53419,12 @@
       <c r="A40" s="4">
         <v>19</v>
       </c>
-      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>7.3750000000000009</v>
       </c>
     </row>
@@ -53452,13 +53432,12 @@
       <c r="A42" s="4">
         <v>20</v>
       </c>
-      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>8.2266666666666666</v>
       </c>
     </row>
@@ -53466,13 +53445,12 @@
       <c r="A44" s="4">
         <v>21</v>
       </c>
-      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>6.8937499999999989</v>
       </c>
     </row>
@@ -53480,13 +53458,12 @@
       <c r="A46" s="4">
         <v>22</v>
       </c>
-      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>6.7666666666666675</v>
       </c>
     </row>
@@ -53494,13 +53471,12 @@
       <c r="A48" s="4">
         <v>23</v>
       </c>
-      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>7.3062499999999995</v>
       </c>
     </row>
@@ -53508,13 +53484,12 @@
       <c r="A50" s="4">
         <v>24</v>
       </c>
-      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>6.92</v>
       </c>
     </row>
@@ -53522,13 +53497,12 @@
       <c r="A52" s="4">
         <v>25</v>
       </c>
-      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>7.7733333333333343</v>
       </c>
     </row>
@@ -53536,13 +53510,12 @@
       <c r="A54" s="4">
         <v>26</v>
       </c>
-      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>7.5400000000000009</v>
       </c>
     </row>
@@ -53550,13 +53523,12 @@
       <c r="A56" s="4">
         <v>27</v>
       </c>
-      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>7.3733333333333331</v>
       </c>
     </row>
@@ -53564,13 +53536,12 @@
       <c r="A58" s="4">
         <v>28</v>
       </c>
-      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>8.071428571428573</v>
       </c>
     </row>
@@ -53578,13 +53549,12 @@
       <c r="A60" s="4">
         <v>29</v>
       </c>
-      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>7.4928571428571429</v>
       </c>
     </row>
@@ -53592,13 +53562,12 @@
       <c r="A62" s="4">
         <v>30</v>
       </c>
-      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>7.7571428571428571</v>
       </c>
     </row>
@@ -53606,13 +53575,12 @@
       <c r="A64" s="4">
         <v>31</v>
       </c>
-      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>8.4214285714285726</v>
       </c>
     </row>
@@ -53620,13 +53588,12 @@
       <c r="A66" s="4">
         <v>32</v>
       </c>
-      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>7.6733333333333347</v>
       </c>
     </row>
@@ -53634,13 +53601,12 @@
       <c r="A68" s="4">
         <v>33</v>
       </c>
-      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>7.8999999999999995</v>
       </c>
     </row>
@@ -53648,13 +53614,12 @@
       <c r="A70" s="4">
         <v>34</v>
       </c>
-      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71">
         <v>7.9692307692307685</v>
       </c>
     </row>
@@ -53662,13 +53627,12 @@
       <c r="A72" s="4">
         <v>35</v>
       </c>
-      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>7.2285714285714278</v>
       </c>
     </row>
@@ -53676,13 +53640,12 @@
       <c r="A74" s="4">
         <v>36</v>
       </c>
-      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>7.2214285714285706</v>
       </c>
     </row>
@@ -53690,13 +53653,12 @@
       <c r="A76" s="4">
         <v>37</v>
       </c>
-      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>8.0428571428571427</v>
       </c>
     </row>
@@ -53704,13 +53666,12 @@
       <c r="A78" s="4">
         <v>38</v>
       </c>
-      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79">
         <v>7.7642857142857125</v>
       </c>
     </row>
@@ -53718,13 +53679,12 @@
       <c r="A80" s="4">
         <v>39</v>
       </c>
-      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81">
         <v>7.2499999999999991</v>
       </c>
     </row>
@@ -53732,13 +53692,12 @@
       <c r="A82" s="4">
         <v>40</v>
       </c>
-      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83">
         <v>8.3428571428571416</v>
       </c>
     </row>
@@ -53746,13 +53705,12 @@
       <c r="A84" s="4">
         <v>41</v>
       </c>
-      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85">
         <v>5.8230769230769237</v>
       </c>
     </row>
@@ -53760,13 +53718,12 @@
       <c r="A86" s="4">
         <v>42</v>
       </c>
-      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87">
         <v>7.3923076923076918</v>
       </c>
     </row>
@@ -53774,13 +53731,12 @@
       <c r="A88" s="4">
         <v>43</v>
       </c>
-      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89">
         <v>7.4692307692307702</v>
       </c>
     </row>
@@ -53788,19 +53744,17 @@
       <c r="A90" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92">
         <v>7.5594936708860878</v>
       </c>
     </row>
@@ -53813,7 +53767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B916788C-7B9C-46E2-A8D6-CE2EEF8E2048}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -53825,16 +53779,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>822</v>
       </c>
     </row>
@@ -53842,13 +53796,13 @@
       <c r="A2" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>8.4214285714285726</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>8.4214285714285726</v>
       </c>
     </row>
@@ -53856,13 +53810,13 @@
       <c r="A3" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>8.3428571428571416</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>8.3428571428571416</v>
       </c>
     </row>
@@ -53870,13 +53824,13 @@
       <c r="A4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>8.26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>8.26</v>
       </c>
     </row>
@@ -53884,13 +53838,13 @@
       <c r="A5" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>8.2266666666666666</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>8.2266666666666666</v>
       </c>
     </row>
@@ -53898,13 +53852,13 @@
       <c r="A6" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>8.071428571428573</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>8.071428571428573</v>
       </c>
     </row>
@@ -53912,13 +53866,13 @@
       <c r="A7" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>8.0428571428571427</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>8.0428571428571427</v>
       </c>
     </row>
@@ -53926,13 +53880,13 @@
       <c r="A8" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>7.9733333333333336</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>7.9733333333333336</v>
       </c>
     </row>
@@ -53940,13 +53894,13 @@
       <c r="A9" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>7.9692307692307685</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>7.9692307692307685</v>
       </c>
     </row>
@@ -53954,13 +53908,13 @@
       <c r="A10" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>7.8999999999999995</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>7.8999999999999995</v>
       </c>
     </row>
@@ -53968,13 +53922,13 @@
       <c r="A11" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>7.7733333333333343</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>7.7733333333333343</v>
       </c>
     </row>
@@ -53982,13 +53936,13 @@
       <c r="A12" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>7.7733333333333343</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>7.7733333333333343</v>
       </c>
     </row>
@@ -53996,13 +53950,13 @@
       <c r="A13" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>7.7642857142857125</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>7.7642857142857125</v>
       </c>
     </row>
@@ -54010,13 +53964,13 @@
       <c r="A14" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>7.7571428571428571</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>7.7571428571428571</v>
       </c>
     </row>
@@ -54024,13 +53978,13 @@
       <c r="A15" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>7.7411764705882353</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>7.7411764705882353</v>
       </c>
     </row>
@@ -54038,13 +53992,13 @@
       <c r="A16" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>7.7133333333333347</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>7.7133333333333347</v>
       </c>
     </row>
@@ -54052,13 +54006,13 @@
       <c r="A17" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>7.7133333333333329</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>7.7133333333333329</v>
       </c>
     </row>
@@ -54066,13 +54020,13 @@
       <c r="A18" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>7.6937499999999996</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>7.6937499999999996</v>
       </c>
     </row>
@@ -54080,13 +54034,13 @@
       <c r="A19" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>7.6733333333333347</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>7.6733333333333347</v>
       </c>
     </row>
@@ -54094,13 +54048,13 @@
       <c r="A20" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>7.6</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>7.6</v>
       </c>
     </row>
@@ -54108,13 +54062,13 @@
       <c r="A21" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>7.5933333333333337</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>7.5933333333333337</v>
       </c>
     </row>
@@ -54122,7 +54076,7 @@
       <c r="A22" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>7.5866666666666651</v>
       </c>
     </row>
@@ -54130,7 +54084,7 @@
       <c r="A23" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>7.58</v>
       </c>
     </row>
@@ -54138,7 +54092,7 @@
       <c r="A24" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>7.5400000000000009</v>
       </c>
     </row>
@@ -54146,7 +54100,7 @@
       <c r="A25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>7.5285714285714302</v>
       </c>
     </row>
@@ -54154,7 +54108,7 @@
       <c r="A26" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>7.4928571428571429</v>
       </c>
     </row>
@@ -54162,7 +54116,7 @@
       <c r="A27" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>7.4692307692307702</v>
       </c>
     </row>
@@ -54170,7 +54124,7 @@
       <c r="A28" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>7.4687500000000018</v>
       </c>
     </row>
@@ -54178,7 +54132,7 @@
       <c r="A29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>7.4562500000000007</v>
       </c>
     </row>
@@ -54186,7 +54140,7 @@
       <c r="A30" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>7.4466666666666681</v>
       </c>
     </row>
@@ -54194,7 +54148,7 @@
       <c r="A31" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>7.4428571428571431</v>
       </c>
     </row>
@@ -54202,7 +54156,7 @@
       <c r="A32" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>7.3923076923076918</v>
       </c>
     </row>
@@ -54210,7 +54164,7 @@
       <c r="A33" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>7.3750000000000009</v>
       </c>
     </row>
@@ -54218,7 +54172,7 @@
       <c r="A34" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>7.3733333333333331</v>
       </c>
     </row>
@@ -54226,7 +54180,7 @@
       <c r="A35" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>7.333333333333333</v>
       </c>
     </row>
@@ -54234,7 +54188,7 @@
       <c r="A36" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>7.3062499999999995</v>
       </c>
     </row>
@@ -54242,7 +54196,7 @@
       <c r="A37" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>7.2499999999999991</v>
       </c>
     </row>
@@ -54250,7 +54204,7 @@
       <c r="A38" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>7.2285714285714278</v>
       </c>
     </row>
@@ -54258,7 +54212,7 @@
       <c r="A39" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>7.2214285714285706</v>
       </c>
     </row>
@@ -54266,7 +54220,7 @@
       <c r="A40" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>7.1466666666666674</v>
       </c>
     </row>
@@ -54274,7 +54228,7 @@
       <c r="A41" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>6.92</v>
       </c>
     </row>
@@ -54282,7 +54236,7 @@
       <c r="A42" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>6.8937499999999989</v>
       </c>
     </row>
@@ -54290,7 +54244,7 @@
       <c r="A43" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>6.7666666666666675</v>
       </c>
     </row>
@@ -54298,7 +54252,7 @@
       <c r="A44" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>5.8230769230769237</v>
       </c>
     </row>
@@ -54317,14 +54271,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M637"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -81212,43 +81167,43 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>807</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>31</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>465</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>42333</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>86</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>8.1199999999999992</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>325</v>
       </c>
       <c r="O2" t="s">
@@ -81259,569 +81214,569 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>805</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>31</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>463</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>42319</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>42</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>234</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>31</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>977</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>43</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>635</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>44902</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>43</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>5.34</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>9.1</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>162</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>31</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>759</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>28</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>417</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>41731</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>44</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>9.48</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>9</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>226</v>
       </c>
       <c r="N5" t="s">
         <v>823</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>43</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>810</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>31</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>468</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>42347</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>98</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>9.91</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>9</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>175</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>28</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>890</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>37</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>548</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>8</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>43418</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>43</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>7.2</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>9</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>346</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>31</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>637</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>20</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>295</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>40261</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>42</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>11.15</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>8.9</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>177</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>37</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>733</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>26</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>391</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>10</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>41381</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>43</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>9.99</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>8.9</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>177</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>20</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>822</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>32</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>480</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>10</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>42480</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>43</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>9.27</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>8.9</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>189</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>26</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>837</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>33</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>495</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>10</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>42697</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>86</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>7.74</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>8.9</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>186</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>32</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>844</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>34</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>502</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>42816</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>41</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>8.1</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>8.9</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>179</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>33</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>935</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>40</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>593</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>11</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>43943</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>43</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>8.16</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>8.9</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>246</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>34</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>938</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>40</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>596</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>14</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>43964</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>128</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>7.94</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>8.9</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>258</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>40</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <v>11</v>
       </c>
     </row>
@@ -81865,10 +81820,10 @@
       <c r="M15">
         <v>289</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>40</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>14</v>
       </c>
     </row>
